--- a/Clases/k-NN/k-NN/datos iris.xlsx
+++ b/Clases/k-NN/k-NN/datos iris.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utneduec-my.sharepoint.com/personal/pdrosero_utn_edu_ec/Documents/SEMESTRE SEP18-ABRIL19/EMBEBIDOS/k-NN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Universidad Tecnica Del Norte\7 Septimo Semestre\Optativa II\Clases\k-NN\k-NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC23DF4A-7465-496F-ABDD-C51AD39B87B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{9095D66A-A001-4DAE-9C1A-0E4B554BFB7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRENAMIENTO" sheetId="1" r:id="rId1"/>
-    <sheet name="TEST" sheetId="2" r:id="rId2"/>
+    <sheet name="Clase 26.11.2018" sheetId="4" r:id="rId2"/>
+    <sheet name="TEST" sheetId="2" r:id="rId3"/>
+    <sheet name="Presentar" sheetId="6" r:id="rId4"/>
+    <sheet name="Prueba1" sheetId="7" r:id="rId5"/>
+    <sheet name="Prueba2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,11 +35,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="66">
+  <si>
+    <t>distancia entre dos puntos</t>
+  </si>
+  <si>
+    <t>se realiza redondeo</t>
+  </si>
+  <si>
+    <t>normalizar</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -51,18 +256,56 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -71,11 +314,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,17 +639,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C99BAFE-E50D-4CCE-8335-CF27EA84E86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G120"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -419,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="str">
-        <f>CONCATENATE("{",A1,",",B1,",",C1,",",D1,",",E1,"}",",")</f>
+        <f t="shared" ref="G1:G32" si="0">CONCATENATE("{",A1,",",B1,",",C1,",",D1,",",E1,"}",",")</f>
         <v>{5.4,3.7,1.5,0.2,1},</v>
       </c>
     </row>
@@ -440,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE("{",A2,",",B2,",",C2,",",D2,",",E2,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.8,3.4,1.6,0.2,1},</v>
       </c>
     </row>
@@ -461,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE("{",A3,",",B3,",",C3,",",D3,",",E3,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.8,3,1.4,0.1,1},</v>
       </c>
     </row>
@@ -482,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE("{",A4,",",B4,",",C4,",",D4,",",E4,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.3,3,1.1,0.1,1},</v>
       </c>
     </row>
@@ -503,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE("{",A5,",",B5,",",C5,",",D5,",",E5,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.8,4,1.2,0.2,1},</v>
       </c>
     </row>
@@ -524,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE("{",A6,",",B6,",",C6,",",D6,",",E6,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.7,4.4,1.5,0.4,1},</v>
       </c>
     </row>
@@ -545,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE("{",A7,",",B7,",",C7,",",D7,",",E7,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.4,3.9,1.3,0.4,1},</v>
       </c>
     </row>
@@ -566,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE("{",A8,",",B8,",",C8,",",D8,",",E8,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.1,3.5,1.4,0.3,1},</v>
       </c>
     </row>
@@ -587,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE("{",A9,",",B9,",",C9,",",D9,",",E9,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.7,3.8,1.7,0.3,1},</v>
       </c>
     </row>
@@ -608,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE("{",A10,",",B10,",",C10,",",D10,",",E10,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.1,3.8,1.5,0.3,1},</v>
       </c>
     </row>
@@ -629,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("{",A11,",",B11,",",C11,",",D11,",",E11,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.4,3.4,1.7,0.2,1},</v>
       </c>
     </row>
@@ -650,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE("{",A12,",",B12,",",C12,",",D12,",",E12,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.1,3.7,1.5,0.4,1},</v>
       </c>
     </row>
@@ -671,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <f>CONCATENATE("{",A13,",",B13,",",C13,",",D13,",",E13,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.6,3.6,1,0.2,1},</v>
       </c>
     </row>
@@ -692,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f>CONCATENATE("{",A14,",",B14,",",C14,",",D14,",",E14,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.1,3.3,1.7,0.5,1},</v>
       </c>
     </row>
@@ -713,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f>CONCATENATE("{",A15,",",B15,",",C15,",",D15,",",E15,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.8,3.4,1.9,0.2,1},</v>
       </c>
     </row>
@@ -734,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f>CONCATENATE("{",A16,",",B16,",",C16,",",D16,",",E16,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5,3,1.6,0.2,1},</v>
       </c>
     </row>
@@ -755,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f>CONCATENATE("{",A17,",",B17,",",C17,",",D17,",",E17,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5,3.4,1.6,0.4,1},</v>
       </c>
     </row>
@@ -776,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="str">
-        <f>CONCATENATE("{",A18,",",B18,",",C18,",",D18,",",E18,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.2,3.5,1.5,0.2,1},</v>
       </c>
     </row>
@@ -797,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f>CONCATENATE("{",A19,",",B19,",",C19,",",D19,",",E19,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.2,3.4,1.4,0.2,1},</v>
       </c>
     </row>
@@ -818,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f>CONCATENATE("{",A20,",",B20,",",C20,",",D20,",",E20,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.7,3.2,1.6,0.2,1},</v>
       </c>
     </row>
@@ -839,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f>CONCATENATE("{",A21,",",B21,",",C21,",",D21,",",E21,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.8,3.1,1.6,0.2,1},</v>
       </c>
     </row>
@@ -860,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f>CONCATENATE("{",A22,",",B22,",",C22,",",D22,",",E22,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.4,3.4,1.5,0.4,1},</v>
       </c>
     </row>
@@ -881,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="str">
-        <f>CONCATENATE("{",A23,",",B23,",",C23,",",D23,",",E23,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.2,4.1,1.5,0.1,1},</v>
       </c>
     </row>
@@ -902,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE("{",A24,",",B24,",",C24,",",D24,",",E24,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.5,4.2,1.4,0.2,1},</v>
       </c>
     </row>
@@ -923,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <f>CONCATENATE("{",A25,",",B25,",",C25,",",D25,",",E25,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.9,3.1,1.5,0.1,1},</v>
       </c>
     </row>
@@ -944,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="str">
-        <f>CONCATENATE("{",A26,",",B26,",",C26,",",D26,",",E26,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5,3.2,1.2,0.2,1},</v>
       </c>
     </row>
@@ -965,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <f>CONCATENATE("{",A27,",",B27,",",C27,",",D27,",",E27,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.5,3.5,1.3,0.2,1},</v>
       </c>
     </row>
@@ -986,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="str">
-        <f>CONCATENATE("{",A28,",",B28,",",C28,",",D28,",",E28,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.9,3.1,1.5,0.1,1},</v>
       </c>
     </row>
@@ -1007,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f>CONCATENATE("{",A29,",",B29,",",C29,",",D29,",",E29,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.4,3,1.3,0.2,1},</v>
       </c>
     </row>
@@ -1028,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="str">
-        <f>CONCATENATE("{",A30,",",B30,",",C30,",",D30,",",E30,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5.1,3.4,1.5,0.2,1},</v>
       </c>
     </row>
@@ -1049,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f>CONCATENATE("{",A31,",",B31,",",C31,",",D31,",",E31,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{5,3.5,1.3,0.3,1},</v>
       </c>
     </row>
@@ -1070,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f>CONCATENATE("{",A32,",",B32,",",C32,",",D32,",",E32,"}",",")</f>
+        <f t="shared" si="0"/>
         <v>{4.5,2.3,1.3,0.3,1},</v>
       </c>
     </row>
@@ -1091,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f>CONCATENATE("{",A33,",",B33,",",C33,",",D33,",",E33,"}",",")</f>
+        <f t="shared" ref="G33:G64" si="1">CONCATENATE("{",A33,",",B33,",",C33,",",D33,",",E33,"}",",")</f>
         <v>{4.4,3.2,1.3,0.2,1},</v>
       </c>
     </row>
@@ -1112,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="str">
-        <f>CONCATENATE("{",A34,",",B34,",",C34,",",D34,",",E34,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5,3.5,1.6,0.6,1},</v>
       </c>
     </row>
@@ -1133,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f>CONCATENATE("{",A35,",",B35,",",C35,",",D35,",",E35,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.1,3.8,1.9,0.4,1},</v>
       </c>
     </row>
@@ -1154,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f>CONCATENATE("{",A36,",",B36,",",C36,",",D36,",",E36,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{4.8,3,1.4,0.3,1},</v>
       </c>
     </row>
@@ -1175,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="str">
-        <f>CONCATENATE("{",A37,",",B37,",",C37,",",D37,",",E37,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.1,3.8,1.6,0.2,1},</v>
       </c>
     </row>
@@ -1196,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="str">
-        <f>CONCATENATE("{",A38,",",B38,",",C38,",",D38,",",E38,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{4.6,3.2,1.4,0.2,1},</v>
       </c>
     </row>
@@ -1217,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="str">
-        <f>CONCATENATE("{",A39,",",B39,",",C39,",",D39,",",E39,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.3,3.7,1.5,0.2,1},</v>
       </c>
     </row>
@@ -1238,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="str">
-        <f>CONCATENATE("{",A40,",",B40,",",C40,",",D40,",",E40,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5,3.3,1.4,0.2,1},</v>
       </c>
     </row>
@@ -1259,8 +1509,8 @@
         <v>2</v>
       </c>
       <c r="G41" t="str">
-        <f>CONCATENATE("{",A41,",",B41,",",C41,",",D41,",",E41,"}",",")</f>
-        <v>{5,2,3.5,1,2},</v>
+        <f t="shared" si="1"/>
+        <v>{5,2,3,5,1,2},</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1280,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="str">
-        <f>CONCATENATE("{",A42,",",B42,",",C42,",",D42,",",E42,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.9,3,4.2,1.5,2},</v>
       </c>
     </row>
@@ -1301,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="str">
-        <f>CONCATENATE("{",A43,",",B43,",",C43,",",D43,",",E43,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6,2.2,4,1,2},</v>
       </c>
     </row>
@@ -1322,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="str">
-        <f>CONCATENATE("{",A44,",",B44,",",C44,",",D44,",",E44,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.1,2.9,4.7,1.4,2},</v>
       </c>
     </row>
@@ -1343,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="str">
-        <f>CONCATENATE("{",A45,",",B45,",",C45,",",D45,",",E45,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.6,2.9,3.6,1.3,2},</v>
       </c>
     </row>
@@ -1364,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="G46" t="str">
-        <f>CONCATENATE("{",A46,",",B46,",",C46,",",D46,",",E46,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.7,3.1,4.4,1.4,2},</v>
       </c>
     </row>
@@ -1385,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="str">
-        <f>CONCATENATE("{",A47,",",B47,",",C47,",",D47,",",E47,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.6,3,4.5,1.5,2},</v>
       </c>
     </row>
@@ -1406,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="str">
-        <f>CONCATENATE("{",A48,",",B48,",",C48,",",D48,",",E48,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.8,2.7,4.1,1,2},</v>
       </c>
     </row>
@@ -1427,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="str">
-        <f>CONCATENATE("{",A49,",",B49,",",C49,",",D49,",",E49,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.2,2.2,4.5,1.5,2},</v>
       </c>
     </row>
@@ -1448,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="str">
-        <f>CONCATENATE("{",A50,",",B50,",",C50,",",D50,",",E50,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.6,2.5,3.9,1.1,2},</v>
       </c>
     </row>
@@ -1469,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="str">
-        <f>CONCATENATE("{",A51,",",B51,",",C51,",",D51,",",E51,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.9,3.2,4.8,1.8,2},</v>
       </c>
     </row>
@@ -1490,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="str">
-        <f>CONCATENATE("{",A52,",",B52,",",C52,",",D52,",",E52,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.1,2.8,4,1.3,2},</v>
       </c>
     </row>
@@ -1511,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="G53" t="str">
-        <f>CONCATENATE("{",A53,",",B53,",",C53,",",D53,",",E53,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.3,2.5,4.9,1.5,2},</v>
       </c>
     </row>
@@ -1532,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="str">
-        <f>CONCATENATE("{",A54,",",B54,",",C54,",",D54,",",E54,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.1,2.8,4.7,1.2,2},</v>
       </c>
     </row>
@@ -1553,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="G55" t="str">
-        <f>CONCATENATE("{",A55,",",B55,",",C55,",",D55,",",E55,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.4,2.9,4.3,1.3,2},</v>
       </c>
     </row>
@@ -1574,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="G56" t="str">
-        <f>CONCATENATE("{",A56,",",B56,",",C56,",",D56,",",E56,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.6,3,4.4,1.4,2},</v>
       </c>
     </row>
@@ -1595,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="str">
-        <f>CONCATENATE("{",A57,",",B57,",",C57,",",D57,",",E57,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.8,2.8,4.8,1.4,2},</v>
       </c>
     </row>
@@ -1616,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="G58" t="str">
-        <f>CONCATENATE("{",A58,",",B58,",",C58,",",D58,",",E58,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6.7,3,5,1.7,2},</v>
       </c>
     </row>
@@ -1637,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="G59" t="str">
-        <f>CONCATENATE("{",A59,",",B59,",",C59,",",D59,",",E59,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6,2.9,4.5,1.5,2},</v>
       </c>
     </row>
@@ -1658,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="str">
-        <f>CONCATENATE("{",A60,",",B60,",",C60,",",D60,",",E60,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.7,2.6,3.5,1,2},</v>
       </c>
     </row>
@@ -1679,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="str">
-        <f>CONCATENATE("{",A61,",",B61,",",C61,",",D61,",",E61,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.5,2.4,3.8,1.1,2},</v>
       </c>
     </row>
@@ -1700,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="str">
-        <f>CONCATENATE("{",A62,",",B62,",",C62,",",D62,",",E62,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.5,2.4,3.7,1,2},</v>
       </c>
     </row>
@@ -1721,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="G63" t="str">
-        <f>CONCATENATE("{",A63,",",B63,",",C63,",",D63,",",E63,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{5.8,2.7,3.9,1.2,2},</v>
       </c>
     </row>
@@ -1742,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="str">
-        <f>CONCATENATE("{",A64,",",B64,",",C64,",",D64,",",E64,"}",",")</f>
+        <f t="shared" si="1"/>
         <v>{6,2.7,5.1,1.6,2},</v>
       </c>
     </row>
@@ -1763,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="str">
-        <f>CONCATENATE("{",A65,",",B65,",",C65,",",D65,",",E65,"}",",")</f>
+        <f t="shared" ref="G65:G99" si="2">CONCATENATE("{",A65,",",B65,",",C65,",",D65,",",E65,"}",",")</f>
         <v>{5.4,3,4.5,1.5,2},</v>
       </c>
     </row>
@@ -1784,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="str">
-        <f>CONCATENATE("{",A66,",",B66,",",C66,",",D66,",",E66,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6,3.4,4.5,1.6,2},</v>
       </c>
     </row>
@@ -1805,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="str">
-        <f>CONCATENATE("{",A67,",",B67,",",C67,",",D67,",",E67,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.7,3.1,4.7,1.5,2},</v>
       </c>
     </row>
@@ -1826,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="G68" t="str">
-        <f>CONCATENATE("{",A68,",",B68,",",C68,",",D68,",",E68,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.3,2.3,4.4,1.3,2},</v>
       </c>
     </row>
@@ -1847,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="G69" t="str">
-        <f>CONCATENATE("{",A69,",",B69,",",C69,",",D69,",",E69,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.6,3,4.1,1.3,2},</v>
       </c>
     </row>
@@ -1868,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="G70" t="str">
-        <f>CONCATENATE("{",A70,",",B70,",",C70,",",D70,",",E70,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.5,2.5,4,1.3,2},</v>
       </c>
     </row>
@@ -1889,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="str">
-        <f>CONCATENATE("{",A71,",",B71,",",C71,",",D71,",",E71,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.5,2.6,4.4,1.2,2},</v>
       </c>
     </row>
@@ -1910,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="str">
-        <f>CONCATENATE("{",A72,",",B72,",",C72,",",D72,",",E72,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.1,3,4.6,1.4,2},</v>
       </c>
     </row>
@@ -1931,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="str">
-        <f>CONCATENATE("{",A73,",",B73,",",C73,",",D73,",",E73,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.8,2.6,4,1.2,2},</v>
       </c>
     </row>
@@ -1952,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="str">
-        <f>CONCATENATE("{",A74,",",B74,",",C74,",",D74,",",E74,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5,2.3,3.3,1,2},</v>
       </c>
     </row>
@@ -1973,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="G75" t="str">
-        <f>CONCATENATE("{",A75,",",B75,",",C75,",",D75,",",E75,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.6,2.7,4.2,1.3,2},</v>
       </c>
     </row>
@@ -1994,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="G76" t="str">
-        <f>CONCATENATE("{",A76,",",B76,",",C76,",",D76,",",E76,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.7,3,4.2,1.2,2},</v>
       </c>
     </row>
@@ -2015,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="G77" t="str">
-        <f>CONCATENATE("{",A77,",",B77,",",C77,",",D77,",",E77,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.7,2.9,4.2,1.3,2},</v>
       </c>
     </row>
@@ -2036,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="str">
-        <f>CONCATENATE("{",A78,",",B78,",",C78,",",D78,",",E78,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.2,2.9,4.3,1.3,2},</v>
       </c>
     </row>
@@ -2057,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="G79" t="str">
-        <f>CONCATENATE("{",A79,",",B79,",",C79,",",D79,",",E79,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.1,2.5,3,1.1,2},</v>
       </c>
     </row>
@@ -2078,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="G80" t="str">
-        <f>CONCATENATE("{",A80,",",B80,",",C80,",",D80,",",E80,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.7,2.8,4.1,1.3,2},</v>
       </c>
     </row>
@@ -2099,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="G81" t="str">
-        <f>CONCATENATE("{",A81,",",B81,",",C81,",",D81,",",E81,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.5,3.2,5.1,2,3},</v>
       </c>
     </row>
@@ -2120,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="G82" t="str">
-        <f>CONCATENATE("{",A82,",",B82,",",C82,",",D82,",",E82,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.4,2.7,5.3,1.9,3},</v>
       </c>
     </row>
@@ -2141,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="G83" t="str">
-        <f>CONCATENATE("{",A83,",",B83,",",C83,",",D83,",",E83,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.8,3,5.5,2.1,3},</v>
       </c>
     </row>
@@ -2162,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="str">
-        <f>CONCATENATE("{",A84,",",B84,",",C84,",",D84,",",E84,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.7,2.5,5,2,3},</v>
       </c>
     </row>
@@ -2183,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="str">
-        <f>CONCATENATE("{",A85,",",B85,",",C85,",",D85,",",E85,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.8,2.8,5.1,2.4,3},</v>
       </c>
     </row>
@@ -2204,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="G86" t="str">
-        <f>CONCATENATE("{",A86,",",B86,",",C86,",",D86,",",E86,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.4,3.2,5.3,2.3,3},</v>
       </c>
     </row>
@@ -2225,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="G87" t="str">
-        <f>CONCATENATE("{",A87,",",B87,",",C87,",",D87,",",E87,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.5,3,5.5,1.8,3},</v>
       </c>
     </row>
@@ -2246,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="G88" t="str">
-        <f>CONCATENATE("{",A88,",",B88,",",C88,",",D88,",",E88,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{7.7,3.8,6.7,2.2,3},</v>
       </c>
     </row>
@@ -2267,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="G89" t="str">
-        <f>CONCATENATE("{",A89,",",B89,",",C89,",",D89,",",E89,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{7.7,2.6,6.9,2.3,3},</v>
       </c>
     </row>
@@ -2288,7 +2538,7 @@
         <v>3</v>
       </c>
       <c r="G90" t="str">
-        <f>CONCATENATE("{",A90,",",B90,",",C90,",",D90,",",E90,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6,2.2,5,1.5,3},</v>
       </c>
     </row>
@@ -2309,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="G91" t="str">
-        <f>CONCATENATE("{",A91,",",B91,",",C91,",",D91,",",E91,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.9,3.2,5.7,2.3,3},</v>
       </c>
     </row>
@@ -2330,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="G92" t="str">
-        <f>CONCATENATE("{",A92,",",B92,",",C92,",",D92,",",E92,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{5.6,2.8,4.9,2,3},</v>
       </c>
     </row>
@@ -2351,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="G93" t="str">
-        <f>CONCATENATE("{",A93,",",B93,",",C93,",",D93,",",E93,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{7.7,2.8,6.7,2,3},</v>
       </c>
     </row>
@@ -2372,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="G94" t="str">
-        <f>CONCATENATE("{",A94,",",B94,",",C94,",",D94,",",E94,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.3,2.7,4.9,1.8,3},</v>
       </c>
     </row>
@@ -2393,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="G95" t="str">
-        <f>CONCATENATE("{",A95,",",B95,",",C95,",",D95,",",E95,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.7,3.3,5.7,2.1,3},</v>
       </c>
     </row>
@@ -2414,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="G96" t="str">
-        <f>CONCATENATE("{",A96,",",B96,",",C96,",",D96,",",E96,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{7.2,3.2,6,1.8,3},</v>
       </c>
     </row>
@@ -2435,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="G97" t="str">
-        <f>CONCATENATE("{",A97,",",B97,",",C97,",",D97,",",E97,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.2,2.8,4.8,1.8,3},</v>
       </c>
     </row>
@@ -2456,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="G98" t="str">
-        <f>CONCATENATE("{",A98,",",B98,",",C98,",",D98,",",E98,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.1,3,4.9,1.8,3},</v>
       </c>
     </row>
@@ -2477,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="G99" t="str">
-        <f>CONCATENATE("{",A99,",",B99,",",C99,",",D99,",",E99,"}",",")</f>
+        <f t="shared" si="2"/>
         <v>{6.4,2.8,5.6,2.1,3},</v>
       </c>
     </row>
@@ -2498,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" ref="G100:G120" si="0">CONCATENATE("{",A100,",",B100,",",C100,",",D100,",",E100,"}",",")</f>
+        <f t="shared" ref="G100:G120" si="3">CONCATENATE("{",A100,",",B100,",",C100,",",D100,",",E100,"}",",")</f>
         <v>{7.2,3,5.8,1.6,3},</v>
       </c>
     </row>
@@ -2519,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{7.4,2.8,6.1,1.9,3},</v>
       </c>
     </row>
@@ -2540,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{7.9,3.8,6.4,2,3},</v>
       </c>
     </row>
@@ -2561,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.4,2.8,5.6,2.2,3},</v>
       </c>
     </row>
@@ -2582,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.3,2.8,5.1,1.5,3},</v>
       </c>
     </row>
@@ -2603,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.1,2.6,5.6,1.4,3},</v>
       </c>
     </row>
@@ -2624,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{7.7,3,6.1,2.3,3},</v>
       </c>
     </row>
@@ -2645,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.3,3.4,5.6,2.4,3},</v>
       </c>
     </row>
@@ -2666,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.4,3.1,5.5,1.8,3},</v>
       </c>
     </row>
@@ -2687,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6,3,4.8,1.8,3},</v>
       </c>
     </row>
@@ -2708,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.9,3.1,5.4,2.1,3},</v>
       </c>
     </row>
@@ -2729,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.7,3.1,5.6,2.4,3},</v>
       </c>
     </row>
@@ -2750,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.9,3.1,5.1,2.3,3},</v>
       </c>
     </row>
@@ -2771,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{5.8,2.7,5.1,1.9,3},</v>
       </c>
     </row>
@@ -2792,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.8,3.2,5.9,2.3,3},</v>
       </c>
     </row>
@@ -2813,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.7,3.3,5.7,2.5,3},</v>
       </c>
     </row>
@@ -2834,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.7,3,5.2,2.3,3},</v>
       </c>
     </row>
@@ -2855,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.3,2.5,5,1.9,3},</v>
       </c>
     </row>
@@ -2876,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.5,3,5.2,2,3},</v>
       </c>
     </row>
@@ -2897,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{6.2,3.4,5.4,2.3,3},</v>
       </c>
     </row>
@@ -2918,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>{5.9,3,5.1,1.8,3},</v>
       </c>
     </row>
@@ -2929,381 +3179,5458 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819762D4-4DF1-429D-884C-EB961508D47C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O126"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:E123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>0.65</v>
+      </c>
+      <c r="L1">
+        <v>0.2</v>
+      </c>
+      <c r="N1">
+        <v>0.17</v>
+      </c>
+      <c r="O1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="B2">
+        <v>3.7</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SQRT((POWER(A2-$A$42,2)+POWER(B2-$B$42,2)+POWER(C2-$C$42,2)+POWER(D2-$D$42,2)))</f>
+        <v>0.44315629297122744</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(G2,2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="I2">
+        <f>ROUND((H2/$H$42),2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="K2" s="3">
+        <f>IF(I2&lt;=K1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>IF(I2&lt;=$L$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IF(AND(I2&gt;=$N$1,I2&lt;=$O$1),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B3">
+        <v>3.4</v>
+      </c>
+      <c r="C3">
+        <v>1.6</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="0">SQRT((POWER(A3-$A$42,2)+POWER(B3-$B$42,2)+POWER(C3-$C$42,2)+POWER(D3-$D$42,2)))</f>
+        <v>0.28440727838787877</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H41" si="1">ROUND(G3,2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I41" si="2">ROUND((H3/$H$42),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K41" si="3">IF(I3&lt;=0.65,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L41" si="4">IF(I3&lt;=$L$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N41" si="5">IF(AND(I3&gt;=$N$1,I3&lt;=$O$1),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.4</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.53281094207983348</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.41</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.95230641077333922</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.9776949933389244</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.1695672276530329</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.17</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="B8">
+        <v>3.9</v>
+      </c>
+      <c r="C8">
+        <v>1.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.62079586016660926</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.11570436465406105</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B10">
+        <v>3.8</v>
+      </c>
+      <c r="C10">
+        <v>1.7</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.78414762640717084</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.61</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B11">
+        <v>3.8</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.36453737805607844</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="B12">
+        <v>3.4</v>
+      </c>
+      <c r="C12">
+        <v>1.7</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.43172618637279819</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B13">
+        <v>3.7</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+      <c r="D13">
+        <v>0.4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.30312951027572416</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B14">
+        <v>3.6</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.66399359936674129</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B15">
+        <v>3.3</v>
+      </c>
+      <c r="C15">
+        <v>1.7</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.37534983681893341</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B16">
+        <v>3.4</v>
+      </c>
+      <c r="C16">
+        <v>1.9</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.500387349960009</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.39</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1.6</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.4689216352440988</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.37</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>3.4</v>
+      </c>
+      <c r="C18">
+        <v>1.6</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.20949343665136655</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B19">
+        <v>3.5</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.17716517716526578</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B20">
+        <v>3.4</v>
+      </c>
+      <c r="C20">
+        <v>1.4</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.18408557792505048</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B21">
+        <v>3.2</v>
+      </c>
+      <c r="C21">
+        <v>1.6</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.44428313044724072</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B22">
+        <v>3.1</v>
+      </c>
+      <c r="C22">
+        <v>1.6</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.4448454787901075</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="B23">
+        <v>3.4</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>0.4</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.39164716263494104</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C24">
+        <v>1.5</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.69093234111597379</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B25">
+        <v>4.2</v>
+      </c>
+      <c r="C25">
+        <v>1.4</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.88678492319163882</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B26">
+        <v>3.1</v>
+      </c>
+      <c r="C26">
+        <v>1.5</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.403593235820423</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.31</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3.2</v>
+      </c>
+      <c r="C27">
+        <v>1.2</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.36862921750723915</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B28">
+        <v>3.5</v>
+      </c>
+      <c r="C28">
+        <v>1.3</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.49283617967839932</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B29">
+        <v>3.1</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0.403593235820423</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.31</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1.3</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.80086671799994247</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B31">
+        <v>3.4</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
+      </c>
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>9.4273538174823424E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>3.5</v>
+      </c>
+      <c r="C32">
+        <v>1.3</v>
+      </c>
+      <c r="D32">
+        <v>0.3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0.18811565591412094</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C33">
+        <v>1.3</v>
+      </c>
+      <c r="D33">
+        <v>0.3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.2790181781350878</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.28</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B34">
+        <v>3.2</v>
+      </c>
+      <c r="C34">
+        <v>1.3</v>
+      </c>
+      <c r="D34">
+        <v>0.2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0.70949806201285681</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>3.5</v>
+      </c>
+      <c r="C35">
+        <v>1.6</v>
+      </c>
+      <c r="D35">
+        <v>0.6</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0.38064090689257274</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B36">
+        <v>3.8</v>
+      </c>
+      <c r="C36">
+        <v>1.9</v>
+      </c>
+      <c r="D36">
+        <v>0.4</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.5821404469713477</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1.4</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0.51369981506712625</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B38">
+        <v>3.8</v>
+      </c>
+      <c r="C38">
+        <v>1.6</v>
+      </c>
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0.38650679166089741</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B39">
+        <v>3.2</v>
+      </c>
+      <c r="C39">
+        <v>1.4</v>
+      </c>
+      <c r="D39">
+        <v>0.2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0.51272556011964165</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="B40">
+        <v>3.7</v>
+      </c>
+      <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0.36727033640085899</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>3.3</v>
+      </c>
+      <c r="C41">
+        <v>1.4</v>
+      </c>
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0.17288001619620433</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2">
+        <f>AVERAGE(A2:A41)</f>
+        <v>5.0425000000000004</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ref="B42:D42" si="6">AVERAGE(B2:B41)</f>
+        <v>3.4449999999999994</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4674999999999996</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="H42">
+        <f>MAX(H2:H41)</f>
+        <v>1.28</v>
+      </c>
+      <c r="K42" s="4">
+        <f>COUNTIF(K2:K41,1)</f>
+        <v>35</v>
+      </c>
+      <c r="L42" s="4">
+        <f>COUNTIF(L2:L41,1)</f>
+        <v>7</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" ref="M42:N42" si="7">COUNTIF(M2:M41,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>3.5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f>SQRT((POWER(A44-$A$84,2)+POWER(B44-$B$84,2)+POWER(C44-$C$84,2)+POWER(D44-$D$84,2)))</f>
+        <v>1.4107666355567092</v>
+      </c>
+      <c r="H44">
+        <f>ROUND(G44,2)</f>
+        <v>1.41</v>
+      </c>
+      <c r="I44">
+        <f>ROUND((H44/$H$84),2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="K44">
+        <f>IF(I44&lt;=$K$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>IF(I44&lt;=$L$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>IF(AND(I44&gt;=$N$1,I44&lt;=$O$1),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>4.2</v>
+      </c>
+      <c r="D45">
+        <v>1.5</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G83" si="8">SQRT((POWER(A45-$A$84,2)+POWER(B45-$B$84,2)+POWER(C45-$C$84,2)+POWER(D45-$D$84,2)))</f>
+        <v>0.31821769278278705</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H83" si="9">ROUND(G45,2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I83" si="10">ROUND((H45/$H$84),2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:K83" si="11">IF(I45&lt;=$K$1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ref="L45:L83" si="12">IF(I45&lt;=$L$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N83" si="13">IF(AND(I45&gt;=$N$1,I45&lt;=$O$1),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="8"/>
+        <v>0.67805788838417003</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="9"/>
+        <v>0.68</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B47">
+        <v>2.9</v>
+      </c>
+      <c r="C47">
+        <v>4.7</v>
+      </c>
+      <c r="D47">
+        <v>1.4</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="8"/>
+        <v>0.54061307790322721</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
+        <v>0.54</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>0.36</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B48">
+        <v>2.9</v>
+      </c>
+      <c r="C48">
+        <v>3.6</v>
+      </c>
+      <c r="D48">
+        <v>1.3</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="8"/>
+        <v>0.71502622329534127</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
+        <v>0.72</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>0.48</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B49">
+        <v>3.1</v>
+      </c>
+      <c r="C49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D49">
+        <v>1.4</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="8"/>
+        <v>0.89986804588228531</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>4.5</v>
+      </c>
+      <c r="D50">
+        <v>1.5</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="8"/>
+        <v>0.50868703541568638</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>0.51</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>0.34</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B51">
+        <v>2.7</v>
+      </c>
+      <c r="C51">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
+        <v>0.35533434959204219</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>0.36</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="10"/>
+        <v>0.24</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C52">
+        <v>4.5</v>
+      </c>
+      <c r="D52">
+        <v>1.5</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>0.7048138051996431</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="10"/>
+        <v>0.47</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="C53">
+        <v>3.9</v>
+      </c>
+      <c r="D53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>0.55023858461580022</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>0.37</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="B54">
+        <v>3.2</v>
+      </c>
+      <c r="C54">
+        <v>4.8</v>
+      </c>
+      <c r="D54">
+        <v>1.8</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>0.87564975875060946</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
+        <v>0.88</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>0.59</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B55">
+        <v>2.8</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1.3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>0.31505951818664418</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
+        <v>0.32</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>0.21</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B56">
+        <v>2.5</v>
+      </c>
+      <c r="C56">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>0.83950134008231425</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="10"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B57">
+        <v>2.8</v>
+      </c>
+      <c r="C57">
+        <v>4.7</v>
+      </c>
+      <c r="D57">
+        <v>1.2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="8"/>
+        <v>0.52560679219355666</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="9"/>
+        <v>0.53</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B58">
+        <v>2.9</v>
+      </c>
+      <c r="C58">
+        <v>4.3</v>
+      </c>
+      <c r="D58">
+        <v>1.3</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="8"/>
+        <v>0.53269362676871002</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="9"/>
+        <v>0.53</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D59">
+        <v>1.4</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="8"/>
+        <v>0.77315102017652515</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="9"/>
+        <v>0.77</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="10"/>
+        <v>0.51</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="B60">
+        <v>2.8</v>
+      </c>
+      <c r="C60">
+        <v>4.8</v>
+      </c>
+      <c r="D60">
+        <v>1.4</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="8"/>
+        <v>1.0732019847167644</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="9"/>
+        <v>1.07</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="10"/>
+        <v>0.71</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>1.7</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>1.2050985436884416</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="9"/>
+        <v>1.21</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="10"/>
+        <v>0.81</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>2.9</v>
+      </c>
+      <c r="C62">
+        <v>4.5</v>
+      </c>
+      <c r="D62">
+        <v>1.5</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>0.37651361197173266</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>0.38</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B63">
+        <v>2.6</v>
+      </c>
+      <c r="C63">
+        <v>3.5</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>0.83262386465918636</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>0.83</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="10"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B64">
+        <v>2.4</v>
+      </c>
+      <c r="C64">
+        <v>3.8</v>
+      </c>
+      <c r="D64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="8"/>
+        <v>0.71222363061049776</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="9"/>
+        <v>0.71</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="10"/>
+        <v>0.47</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B65">
+        <v>2.4</v>
+      </c>
+      <c r="C65">
+        <v>3.7</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="8"/>
+        <v>0.81010030243174114</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="9"/>
+        <v>0.81</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="10"/>
+        <v>0.54</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B66">
+        <v>2.7</v>
+      </c>
+      <c r="C66">
+        <v>3.9</v>
+      </c>
+      <c r="D66">
+        <v>1.2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="8"/>
+        <v>0.36641847660837151</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="9"/>
+        <v>0.37</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>2.7</v>
+      </c>
+      <c r="C67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D67">
+        <v>1.6</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="8"/>
+        <v>0.92101167202158729</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="10"/>
+        <v>0.61</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>4.5</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>0.64557145228084445</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>0.43</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>3.4</v>
+      </c>
+      <c r="C69">
+        <v>4.5</v>
+      </c>
+      <c r="D69">
+        <v>1.6</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>0.77088423255376093</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>0.77</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>0.51</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B70">
+        <v>3.1</v>
+      </c>
+      <c r="C70">
+        <v>4.7</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>1.0137862200681182</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>1.01</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>0.67</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C71">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D71">
+        <v>1.3</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>0.62470993268876462</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>0.62</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>0.41</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D72">
+        <v>1.3</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>0.41202245084461075</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>0.41</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>0.27</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B73">
+        <v>2.5</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1.3</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>0.51986777164967513</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>0.52</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B74">
+        <v>2.6</v>
+      </c>
+      <c r="C74">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D74">
+        <v>1.2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>0.46665029733195174</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>0.47</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>0.31</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D75">
+        <v>1.4</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>0.49976244356694149</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>0.33</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B76">
+        <v>2.6</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1.2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>0.31106671310186756</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>0.31</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>0.21</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C77">
+        <v>3.3</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>1.4022348234158206</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>0.93</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B78">
+        <v>2.7</v>
+      </c>
+      <c r="C78">
+        <v>4.2</v>
+      </c>
+      <c r="D78">
+        <v>1.3</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>0.30043718145395948</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>4.2</v>
+      </c>
+      <c r="D79">
+        <v>1.2</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>0.34170528237064102</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>0.34</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>0.23</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B80">
+        <v>2.9</v>
+      </c>
+      <c r="C80">
+        <v>4.2</v>
+      </c>
+      <c r="D80">
+        <v>1.3</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>0.25152037690811352</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>0.17</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B81">
+        <v>2.9</v>
+      </c>
+      <c r="C81">
+        <v>4.3</v>
+      </c>
+      <c r="D81">
+        <v>1.3</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>0.34894483804750709</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>0.23</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B82">
+        <v>2.5</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>1.5020860494658745</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B83">
+        <v>2.8</v>
+      </c>
+      <c r="C83">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D83">
+        <v>1.3</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>0.242409777030547</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>0.16</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <f>AVERAGE(A44:A83)</f>
+        <v>5.8949999999999987</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:D84" si="14">AVERAGE(B44:B83)</f>
+        <v>2.7449999999999997</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="14"/>
+        <v>4.2324999999999999</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="14"/>
+        <v>1.3124999999999998</v>
+      </c>
+      <c r="H84">
+        <f>MAX(H44:H83)</f>
+        <v>1.5</v>
+      </c>
+      <c r="K84">
+        <f>COUNTIF(K44:K83,1)</f>
+        <v>34</v>
+      </c>
+      <c r="L84">
+        <f>COUNTIF(L44:L83,1)</f>
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ref="M84:N84" si="15">COUNTIF(M44:M83,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B86">
+        <v>3.2</v>
+      </c>
+      <c r="C86">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <f>SQRT((POWER(A86-$A$126,2)+POWER(B86-$B$126,2)+POWER(C86-$C$126,2)+POWER(D86-$D$126,2)))</f>
+        <v>0.4630064794363033</v>
+      </c>
+      <c r="H86">
+        <f>ROUND(G86,2)</f>
+        <v>0.46</v>
+      </c>
+      <c r="I86">
+        <f>ROUND(H86/$H$126,2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K86">
+        <f>IF(I86&lt;=$K$1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f>IF(I86&lt;=L1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f>IF(AND(I86&gt;=$N$1,I86&lt;=$O$1),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B87">
+        <v>2.7</v>
+      </c>
+      <c r="C87">
+        <v>5.3</v>
+      </c>
+      <c r="D87">
+        <v>1.9</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ref="G87:G125" si="16">SQRT((POWER(A87-$A$126,2)+POWER(B87-$B$126,2)+POWER(C87-$C$126,2)+POWER(D87-$D$126,2)))</f>
+        <v>0.41337029404639025</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:H125" si="17">ROUND(G87,2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87:I125" si="18">ROUND(H87/$H$126,2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87:K125" si="19">IF(I87&lt;=$K$1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ref="L87:L125" si="20">IF(I87&lt;=L2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" ref="N87:N125" si="21">IF(AND(I87&gt;=$N$1,I87&lt;=$O$1),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>5.5</v>
+      </c>
+      <c r="D88">
+        <v>2.1</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="16"/>
+        <v>0.22220486043288878</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="17"/>
+        <v>0.22</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="18"/>
+        <v>0.12</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B89">
+        <v>2.5</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="16"/>
+        <v>1.1302101574486045</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="17"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="18"/>
+        <v>0.61</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B90">
+        <v>2.8</v>
+      </c>
+      <c r="C90">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D90">
+        <v>2.4</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="16"/>
+        <v>0.98075226229665224</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="17"/>
+        <v>0.98</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="18"/>
+        <v>0.53</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B91">
+        <v>3.2</v>
+      </c>
+      <c r="C91">
+        <v>5.3</v>
+      </c>
+      <c r="D91">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="16"/>
+        <v>0.44763266190035833</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="17"/>
+        <v>0.45</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>5.5</v>
+      </c>
+      <c r="D92">
+        <v>1.8</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="16"/>
+        <v>0.24160918856699143</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="17"/>
+        <v>0.24</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="18"/>
+        <v>0.13</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="B93">
+        <v>3.8</v>
+      </c>
+      <c r="C93">
+        <v>6.7</v>
+      </c>
+      <c r="D93">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="16"/>
+        <v>1.8364027336072015</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="17"/>
+        <v>1.84</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="18"/>
+        <v>0.99</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="B94">
+        <v>2.6</v>
+      </c>
+      <c r="C94">
+        <v>6.9</v>
+      </c>
+      <c r="D94">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="16"/>
+        <v>1.8484791045613693</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="17"/>
+        <v>1.85</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>1.5</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="16"/>
+        <v>1.2181440801481562</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="17"/>
+        <v>1.22</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="18"/>
+        <v>0.66</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B96">
+        <v>3.2</v>
+      </c>
+      <c r="C96">
+        <v>5.7</v>
+      </c>
+      <c r="D96">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="16"/>
+        <v>0.5097793640389936</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="17"/>
+        <v>0.51</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="18"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="B97">
+        <v>2.8</v>
+      </c>
+      <c r="C97">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="16"/>
+        <v>1.1729769818713411</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="17"/>
+        <v>1.17</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="18"/>
+        <v>0.63</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="B98">
+        <v>2.8</v>
+      </c>
+      <c r="C98">
+        <v>6.7</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="16"/>
+        <v>1.6451063795390257</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="17"/>
+        <v>1.65</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="18"/>
+        <v>0.89</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B99">
+        <v>2.7</v>
+      </c>
+      <c r="C99">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D99">
+        <v>1.8</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="16"/>
+        <v>0.75622417311270729</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="17"/>
+        <v>0.76</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="18"/>
+        <v>0.41</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B100">
+        <v>3.3</v>
+      </c>
+      <c r="C100">
+        <v>5.7</v>
+      </c>
+      <c r="D100">
+        <v>2.1</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="16"/>
+        <v>0.39921798556678406</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="18"/>
+        <v>0.22</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="B101">
+        <v>3.2</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>1.8</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="16"/>
+        <v>0.84757005610155922</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="18"/>
+        <v>0.46</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B102">
+        <v>2.8</v>
+      </c>
+      <c r="C102">
+        <v>4.8</v>
+      </c>
+      <c r="D102">
+        <v>1.8</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="16"/>
+        <v>0.85051455014008936</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="18"/>
+        <v>0.46</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D103">
+        <v>1.8</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="16"/>
+        <v>0.80583807306430943</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="17"/>
+        <v>0.81</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="18"/>
+        <v>0.44</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B104">
+        <v>2.8</v>
+      </c>
+      <c r="C104">
+        <v>5.6</v>
+      </c>
+      <c r="D104">
+        <v>2.1</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="16"/>
+        <v>0.29474565306379041</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="17"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="18"/>
+        <v>0.16</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>5.8</v>
+      </c>
+      <c r="D105">
+        <v>1.6</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="16"/>
+        <v>0.79960927958597317</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="18"/>
+        <v>0.43</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="B106">
+        <v>2.8</v>
+      </c>
+      <c r="C106">
+        <v>6.1</v>
+      </c>
+      <c r="D106">
+        <v>1.9</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="16"/>
+        <v>1.0312007564000327</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="17"/>
+        <v>1.03</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="18"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="B107">
+        <v>3.8</v>
+      </c>
+      <c r="C107">
+        <v>6.4</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="16"/>
+        <v>1.7868617741728099</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="17"/>
+        <v>1.79</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="18"/>
+        <v>0.97</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B108">
+        <v>2.8</v>
+      </c>
+      <c r="C108">
+        <v>5.6</v>
+      </c>
+      <c r="D108">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="16"/>
+        <v>0.33522380583723532</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="17"/>
+        <v>0.34</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="18"/>
+        <v>0.18</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B109">
+        <v>2.8</v>
+      </c>
+      <c r="C109">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D109">
+        <v>1.5</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="16"/>
+        <v>0.74153556893786232</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="17"/>
+        <v>0.74</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B110">
+        <v>2.6</v>
+      </c>
+      <c r="C110">
+        <v>5.6</v>
+      </c>
+      <c r="D110">
+        <v>1.4</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="16"/>
+        <v>0.88705974996050874</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="17"/>
+        <v>0.89</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="18"/>
+        <v>0.48</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>6.1</v>
+      </c>
+      <c r="D111">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="16"/>
+        <v>1.2910751333675352</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="17"/>
+        <v>1.29</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="18"/>
+        <v>0.7</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B112">
+        <v>3.4</v>
+      </c>
+      <c r="C112">
+        <v>5.6</v>
+      </c>
+      <c r="D112">
+        <v>2.4</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="16"/>
+        <v>0.64255349971811837</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="17"/>
+        <v>0.64</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="18"/>
+        <v>0.35</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B113">
+        <v>3.1</v>
+      </c>
+      <c r="C113">
+        <v>5.5</v>
+      </c>
+      <c r="D113">
+        <v>1.8</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="16"/>
+        <v>0.31682013824881827</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="17"/>
+        <v>0.32</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="18"/>
+        <v>0.17</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="1">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>4.8</v>
+      </c>
+      <c r="D114">
+        <v>1.8</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="16"/>
+        <v>0.9420058386230945</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="17"/>
+        <v>0.94</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="18"/>
+        <v>0.51</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B115">
+        <v>3.1</v>
+      </c>
+      <c r="C115">
+        <v>5.4</v>
+      </c>
+      <c r="D115">
+        <v>2.1</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="16"/>
+        <v>0.35195880440756067</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="17"/>
+        <v>0.35</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="18"/>
+        <v>0.19</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B116">
+        <v>3.1</v>
+      </c>
+      <c r="C116">
+        <v>5.6</v>
+      </c>
+      <c r="D116">
+        <v>2.4</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="16"/>
+        <v>0.42234464599424076</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="17"/>
+        <v>0.42</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="18"/>
+        <v>0.23</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B117">
+        <v>3.1</v>
+      </c>
+      <c r="C117">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D117">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="16"/>
+        <v>0.58598208163731358</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="17"/>
+        <v>0.59</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="18"/>
+        <v>0.32</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B118">
+        <v>2.7</v>
+      </c>
+      <c r="C118">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D118">
+        <v>1.9</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="16"/>
+        <v>0.93854941265763969</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="17"/>
+        <v>0.94</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="18"/>
+        <v>0.51</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="B119">
+        <v>3.2</v>
+      </c>
+      <c r="C119">
+        <v>5.9</v>
+      </c>
+      <c r="D119">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="16"/>
+        <v>0.57391201416245108</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="17"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="18"/>
+        <v>0.31</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B120">
+        <v>3.3</v>
+      </c>
+      <c r="C120">
+        <v>5.7</v>
+      </c>
+      <c r="D120">
+        <v>2.5</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="16"/>
+        <v>0.61755566550716812</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="17"/>
+        <v>0.62</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="18"/>
+        <v>0.34</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>5.2</v>
+      </c>
+      <c r="D121">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="16"/>
+        <v>0.42115911482478818</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="17"/>
+        <v>0.42</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="18"/>
+        <v>0.23</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B122">
+        <v>2.5</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>1.9</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="16"/>
+        <v>0.76215155973073911</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="17"/>
+        <v>0.76</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="18"/>
+        <v>0.41</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>5.2</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="16"/>
+        <v>0.3128498042192121</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="17"/>
+        <v>0.31</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="18"/>
+        <v>0.17</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B124">
+        <v>3.4</v>
+      </c>
+      <c r="C124">
+        <v>5.4</v>
+      </c>
+      <c r="D124">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="16"/>
+        <v>0.64410791021380975</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="17"/>
+        <v>0.64</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="18"/>
+        <v>0.35</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D125">
+        <v>1.8</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="16"/>
+        <v>0.82908081632612873</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="17"/>
+        <v>0.83</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="18"/>
+        <v>0.45</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126">
+        <f>AVERAGE(A86:A125)</f>
+        <v>6.5925000000000011</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ref="B126:D126" si="22">AVERAGE(B86:B125)</f>
+        <v>2.982499999999999</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="22"/>
+        <v>5.4974999999999987</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="22"/>
+        <v>2.0224999999999995</v>
+      </c>
+      <c r="H126">
+        <f>MAX(H86:H125)</f>
+        <v>1.85</v>
+      </c>
+      <c r="K126">
+        <f>COUNTIF(K86:K125,1)</f>
+        <v>34</v>
+      </c>
+      <c r="L126">
+        <f>COUNTIF(L86:L125,1)</f>
+        <v>6</v>
+      </c>
+      <c r="M126">
+        <f t="shared" ref="M126:N126" si="23">COUNTIF(M86:M125,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B1">
-        <v>3.5</v>
-      </c>
-      <c r="C1">
-        <v>1.4</v>
-      </c>
-      <c r="D1">
-        <v>0.2</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="G1" t="str">
-        <f>CONCATENATE("{",A1,",",B1,",",C1,",",D1,",",E1,"}",",")</f>
-        <v>{5.1,3.5,1.4,0.2,1},</v>
+        <f>CONCATENATE("{",A1,",",B1,",",C1,",",D1,"}",",")</f>
+        <v>{5.1,3.5,1.4,0.2},</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>4.9000000000000004</v>
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1.4</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE("{",A2,",",B2,",",C2,",",D2,",",E2,"}",",")</f>
-        <v>{4.9,3,1.4,0.2,1},</v>
+        <f t="shared" ref="G2:G30" si="0">CONCATENATE("{",A2,",",B2,",",C2,",",D2,"}",",")</f>
+        <v>{4.9,3,1.4,0.2},</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="B3">
-        <v>3.2</v>
-      </c>
-      <c r="C3">
-        <v>1.3</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE("{",A3,",",B3,",",C3,",",D3,",",E3,"}",",")</f>
-        <v>{4.7,3.2,1.3,0.2,1},</v>
+        <f t="shared" si="0"/>
+        <v>{4.7,3.2,1.3,0.2},</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B4">
-        <v>3.1</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE("{",A4,",",B4,",",C4,",",D4,",",E4,"}",",")</f>
-        <v>{4.6,3.1,1.5,0.2,1},</v>
+        <f t="shared" si="0"/>
+        <v>{4.6,3.1,1.5,0.2},</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>3.6</v>
-      </c>
-      <c r="C5">
-        <v>1.4</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE("{",A5,",",B5,",",C5,",",D5,",",E5,"}",",")</f>
-        <v>{5,3.6,1.4,0.2,1},</v>
+        <f t="shared" si="0"/>
+        <v>{5,3.6,1.4,0.2},</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="B6">
-        <v>3.9</v>
-      </c>
-      <c r="C6">
-        <v>1.7</v>
-      </c>
-      <c r="D6">
-        <v>0.4</v>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE("{",A6,",",B6,",",C6,",",D6,",",E6,"}",",")</f>
-        <v>{5.4,3.9,1.7,0.4,1},</v>
+        <f t="shared" si="0"/>
+        <v>{5.4,3.9,1.7,0.4},</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B7">
-        <v>3.4</v>
-      </c>
-      <c r="C7">
-        <v>1.4</v>
-      </c>
-      <c r="D7">
-        <v>0.3</v>
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE("{",A7,",",B7,",",C7,",",D7,",",E7,"}",",")</f>
-        <v>{4.6,3.4,1.4,0.3,1},</v>
+        <f t="shared" si="0"/>
+        <v>{4.6,3.4,1.4,0.3},</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>3.4</v>
-      </c>
-      <c r="C8">
-        <v>1.5</v>
-      </c>
-      <c r="D8">
-        <v>0.2</v>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE("{",A8,",",B8,",",C8,",",D8,",",E8,"}",",")</f>
-        <v>{5,3.4,1.5,0.2,1},</v>
+        <f t="shared" si="0"/>
+        <v>{5,3.4,1.5,0.2},</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B9">
-        <v>2.9</v>
-      </c>
-      <c r="C9">
-        <v>1.4</v>
-      </c>
-      <c r="D9">
-        <v>0.2</v>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE("{",A9,",",B9,",",C9,",",D9,",",E9,"}",",")</f>
-        <v>{4.4,2.9,1.4,0.2,1},</v>
+        <f t="shared" si="0"/>
+        <v>{4.4,2.9,1.4,0.2},</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B10">
-        <v>3.1</v>
-      </c>
-      <c r="C10">
-        <v>1.5</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE("{",A10,",",B10,",",C10,",",D10,",",E10,"}",",")</f>
-        <v>{4.9,3.1,1.5,0.1,1},</v>
+        <f t="shared" si="0"/>
+        <v>{4.9,3.1,1.5,0.1},</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>3.2</v>
-      </c>
-      <c r="C11">
-        <v>4.7</v>
-      </c>
-      <c r="D11">
-        <v>1.4</v>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("{",A11,",",B11,",",C11,",",D11,",",E11,"}",",")</f>
-        <v>{7,3.2,4.7,1.4,2},</v>
+        <f t="shared" si="0"/>
+        <v>{7,3.2,4.7,1.4},</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="B12">
-        <v>3.2</v>
-      </c>
-      <c r="C12">
-        <v>4.5</v>
-      </c>
-      <c r="D12">
-        <v>1.5</v>
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE("{",A12,",",B12,",",C12,",",D12,",",E12,"}",",")</f>
-        <v>{6.4,3.2,4.5,1.5,2},</v>
+        <f t="shared" si="0"/>
+        <v>{6.4,3.2,4.5,1.5},</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="B13">
-        <v>3.1</v>
-      </c>
-      <c r="C13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D13">
-        <v>1.5</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
-        <f>CONCATENATE("{",A13,",",B13,",",C13,",",D13,",",E13,"}",",")</f>
-        <v>{6.9,3.1,4.9,1.5,2},</v>
+        <f t="shared" si="0"/>
+        <v>{6.9,3.1,4.9,1.5},</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="B14">
-        <v>2.2999999999999998</v>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>1.3</v>
+      <c r="D14" t="s">
+        <v>35</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f>CONCATENATE("{",A14,",",B14,",",C14,",",D14,",",E14,"}",",")</f>
-        <v>{5.5,2.3,4,1.3,2},</v>
+        <f t="shared" si="0"/>
+        <v>{5.5,2.3,4,1.3},</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="B15">
-        <v>2.8</v>
-      </c>
-      <c r="C15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D15">
-        <v>1.5</v>
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="G15" t="str">
-        <f>CONCATENATE("{",A15,",",B15,",",C15,",",D15,",",E15,"}",",")</f>
-        <v>{6.5,2.8,4.6,1.5,2},</v>
+        <f t="shared" si="0"/>
+        <v>{6.5,2.8,4.6,1.5},</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="B16">
-        <v>2.8</v>
-      </c>
-      <c r="C16">
-        <v>4.5</v>
-      </c>
-      <c r="D16">
-        <v>1.3</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f>CONCATENATE("{",A16,",",B16,",",C16,",",D16,",",E16,"}",",")</f>
-        <v>{5.7,2.8,4.5,1.3,2},</v>
+        <f t="shared" si="0"/>
+        <v>{5.7,2.8,4.5,1.3},</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="B17">
-        <v>3.3</v>
-      </c>
-      <c r="C17">
-        <v>4.7</v>
-      </c>
-      <c r="D17">
-        <v>1.6</v>
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="G17" t="str">
-        <f>CONCATENATE("{",A17,",",B17,",",C17,",",D17,",",E17,"}",",")</f>
-        <v>{6.3,3.3,4.7,1.6,2},</v>
+        <f t="shared" si="0"/>
+        <v>{6.3,3.3,4.7,1.6},</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B18">
-        <v>2.4</v>
-      </c>
-      <c r="C18">
-        <v>3.3</v>
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3312,260 +8639,1873 @@
         <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f>CONCATENATE("{",A18,",",B18,",",C18,",",D18,",",E18,"}",",")</f>
-        <v>{4.9,2.4,3.3,1,2},</v>
+        <f t="shared" si="0"/>
+        <v>{4.9,2.4,3.3,1},</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="B19">
-        <v>2.9</v>
-      </c>
-      <c r="C19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D19">
-        <v>1.3</v>
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f>CONCATENATE("{",A19,",",B19,",",C19,",",D19,",",E19,"}",",")</f>
-        <v>{6.6,2.9,4.6,1.3,2},</v>
+        <f t="shared" si="0"/>
+        <v>{6.6,2.9,4.6,1.3},</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="B20">
-        <v>2.7</v>
-      </c>
-      <c r="C20">
-        <v>3.9</v>
-      </c>
-      <c r="D20">
-        <v>1.4</v>
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f>CONCATENATE("{",A20,",",B20,",",C20,",",D20,",",E20,"}",",")</f>
-        <v>{5.2,2.7,3.9,1.4,2},</v>
+        <f t="shared" si="0"/>
+        <v>{5.2,2.7,3.9,1.4},</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="B21">
-        <v>3.3</v>
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21">
-        <v>2.5</v>
+      <c r="D21" t="s">
+        <v>41</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="G21" t="str">
-        <f>CONCATENATE("{",A21,",",B21,",",C21,",",D21,",",E21,"}",",")</f>
-        <v>{6.3,3.3,6,2.5,3},</v>
+        <f t="shared" si="0"/>
+        <v>{6.3,3.3,6,2.5},</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="B22">
-        <v>2.7</v>
-      </c>
-      <c r="C22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D22">
-        <v>1.9</v>
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="G22" t="str">
-        <f>CONCATENATE("{",A22,",",B22,",",C22,",",D22,",",E22,"}",",")</f>
-        <v>{5.8,2.7,5.1,1.9,3},</v>
+        <f t="shared" si="0"/>
+        <v>{5.8,2.7,5.1,1.9},</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>7.1</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23">
-        <v>5.9</v>
-      </c>
-      <c r="D23">
-        <v>2.1</v>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="G23" t="str">
-        <f>CONCATENATE("{",A23,",",B23,",",C23,",",D23,",",E23,"}",",")</f>
-        <v>{7.1,3,5.9,2.1,3},</v>
+        <f t="shared" si="0"/>
+        <v>{7.1,3,5.9,2.1},</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="B24">
-        <v>2.9</v>
-      </c>
-      <c r="C24">
-        <v>5.6</v>
-      </c>
-      <c r="D24">
-        <v>1.8</v>
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE("{",A24,",",B24,",",C24,",",D24,",",E24,"}",",")</f>
-        <v>{6.3,2.9,5.6,1.8,3},</v>
+        <f t="shared" si="0"/>
+        <v>{6.3,2.9,5.6,1.8},</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>6.5</v>
+      <c r="A25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25">
-        <v>5.8</v>
-      </c>
-      <c r="D25">
-        <v>2.2000000000000002</v>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="G25" t="str">
-        <f>CONCATENATE("{",A25,",",B25,",",C25,",",D25,",",E25,"}",",")</f>
-        <v>{6.5,3,5.8,2.2,3},</v>
+        <f t="shared" si="0"/>
+        <v>{6.5,3,5.8,2.2},</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>7.6</v>
+      <c r="A26" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26">
-        <v>6.6</v>
-      </c>
-      <c r="D26">
-        <v>2.1</v>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="G26" t="str">
-        <f>CONCATENATE("{",A26,",",B26,",",C26,",",D26,",",E26,"}",",")</f>
-        <v>{7.6,3,6.6,2.1,3},</v>
+        <f t="shared" si="0"/>
+        <v>{7.6,3,6.6,2.1},</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B27">
-        <v>2.5</v>
-      </c>
-      <c r="C27">
-        <v>4.5</v>
-      </c>
-      <c r="D27">
-        <v>1.7</v>
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="G27" t="str">
-        <f>CONCATENATE("{",A27,",",B27,",",C27,",",D27,",",E27,"}",",")</f>
-        <v>{4.9,2.5,4.5,1.7,3},</v>
+        <f t="shared" si="0"/>
+        <v>{4.9,2.5,4.5,1.7},</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="B28">
-        <v>2.9</v>
-      </c>
-      <c r="C28">
-        <v>6.3</v>
-      </c>
-      <c r="D28">
-        <v>1.8</v>
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="G28" t="str">
-        <f>CONCATENATE("{",A28,",",B28,",",C28,",",D28,",",E28,"}",",")</f>
-        <v>{7.3,2.9,6.3,1.8,3},</v>
+        <f t="shared" si="0"/>
+        <v>{7.3,2.9,6.3,1.8},</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="B29">
-        <v>2.5</v>
-      </c>
-      <c r="C29">
-        <v>5.8</v>
-      </c>
-      <c r="D29">
-        <v>1.8</v>
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="G29" t="str">
-        <f>CONCATENATE("{",A29,",",B29,",",C29,",",D29,",",E29,"}",",")</f>
-        <v>{6.7,2.5,5.8,1.8,3},</v>
+        <f t="shared" si="0"/>
+        <v>{6.7,2.5,5.8,1.8},</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="B30">
-        <v>3.6</v>
-      </c>
-      <c r="C30">
-        <v>6.1</v>
-      </c>
-      <c r="D30">
-        <v>2.5</v>
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="G30" t="str">
-        <f>CONCATENATE("{",A30,",",B30,",",C30,",",D30,",",E30,"}",",")</f>
-        <v>{7.2,3.6,6.1,2.5,3},</v>
+        <f t="shared" si="0"/>
+        <v>{7.2,3.6,6.1,2.5},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G12" si="0">CONCATENATE("{",A1,",",B1,",",C1,",",D1,",",E1,"}",",")</f>
+        <v>{4.8,3.4,1.6,0.2,1},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.9,3,4.2,1.5,2},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.1,2.8,4,1.3,2},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.8,2.6,4,1.2,2},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.6,2.7,4.2,1.3,2},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.7,2.9,4.2,1.3,2},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.7,5.3,1.9,3},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.7,3.3,5.7,2.1,3},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.8,5.6,2.2,3},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,3.1,5.5,1.8,3},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.9,3.1,5.4,2.1,3},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.5,3,5.2,2,3},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("{",A1,",",B1,",",C1,",",D1,",",E1,"}",",")</f>
+        <v>{5.4,3.7,1.5,0.2,1},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G43" si="0">CONCATENATE("{",A2,",",B2,",",C2,",",D2,",",E2,"}",",")</f>
+        <v>{4.8,3.4,1.6,0.2,1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.1,3.8,1.5,0.3,1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.4,3.4,1.7,0.2,1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.1,3.7,1.5,0.4,1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.1,3.3,1.7,0.5,1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.7,3.2,1.6,0.2,1},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.8,3.1,1.6,0.2,1},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.4,3.4,1.5,0.4,1},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.9,3.1,1.5,0.1,1},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.2,1.2,0.2,1},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.9,3.1,1.5,0.1,1},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.5,1.6,0.6,1},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.1,3.8,1.6,0.2,1},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.3,3.7,1.5,0.2,1},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.9,3,4.2,1.5,2},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.6,3,4.5,1.5,2},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.8,2.7,4.1,1,2},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.1,2.8,4,1.3,2},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.1,2.8,4.7,1.2,2},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.9,4.3,1.3,2},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>{6,2.9,4.5,1.5,2},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.8,2.7,3.9,1.2,2},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.6,3,4.1,1.3,2},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.5,2.5,4,1.3,2},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.5,2.6,4.4,1.2,2},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.1,3,4.6,1.4,2},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.8,2.6,4,1.2,2},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.6,2.7,4.2,1.3,2},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.7,3,4.2,1.2,2},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.2,2.9,4.3,1.3,2},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.5,3.2,5.1,2,3},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.7,5.3,1.9,3},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,3.2,5.3,2.3,3},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.9,3.2,5.7,2.3,3},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.7,3.3,5.7,2.1,3},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.3,3.4,5.6,2.4,3},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.7,3.1,5.6,2.4,3},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.9,3.1,5.1,2.3,3},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.8,3.2,5.9,2.3,3},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.7,3.3,5.7,2.5,3},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.7,3,5.2,2.3,3},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.2,3.4,5.4,2.3,3},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("{",A1,",",B1,",",C1,",",D1,",",E1,"}",",")</f>
+        <v>{4.8,3.4,1.6,0.2,1},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H19" si="0">CONCATENATE("{",A2,",",B2,",",C2,",",D2,",",E2,"}",",")</f>
+        <v>{5.1,3.7,1.5,0.4,1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.4,1.6,0.4,1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.2,3.5,1.5,0.2,1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.2,3.4,1.4,0.2,1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,3.5,1.3,0.3,1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.9,3,4.2,1.5,2},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.1,2.8,4,1.3,2},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.6,2.7,4.2,1.3,2},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.7,3,4.2,1.2,2},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>{5.7,2.9,4.2,1.3,2},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.2,2.9,4.3,1.3,2},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,2.7,5.3,1.9,3},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.8,3,5.5,2.1,3},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.5,3,5.5,1.8,3},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.7,3.3,5.7,2.1,3},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.4,3.1,5.5,1.8,3},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.9,3.1,5.4,2.1,3},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>{6.7,3.1,5.6,2.4,3},</v>
       </c>
     </row>
   </sheetData>
